--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Egf-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Egf-Erbb2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05056099999999999</v>
+        <v>0.04983966666666667</v>
       </c>
       <c r="H2">
-        <v>0.151683</v>
+        <v>0.149519</v>
       </c>
       <c r="I2">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="J2">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N2">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O2">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P2">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q2">
-        <v>0.07758779267166667</v>
+        <v>0.1221777895277778</v>
       </c>
       <c r="R2">
-        <v>0.698290134045</v>
+        <v>1.09960010575</v>
       </c>
       <c r="S2">
-        <v>0.02757989773119974</v>
+        <v>0.03997489269641692</v>
       </c>
       <c r="T2">
-        <v>0.02757989773119974</v>
+        <v>0.03997489269641692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05056099999999999</v>
+        <v>0.04983966666666667</v>
       </c>
       <c r="H3">
-        <v>0.151683</v>
+        <v>0.149519</v>
       </c>
       <c r="I3">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="J3">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>14.919985</v>
       </c>
       <c r="O3">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P3">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q3">
-        <v>0.2514564538616667</v>
+        <v>0.2478690263572223</v>
       </c>
       <c r="R3">
-        <v>2.263108084755</v>
+        <v>2.230821237215</v>
       </c>
       <c r="S3">
-        <v>0.08938446426363501</v>
+        <v>0.08109933703737976</v>
       </c>
       <c r="T3">
-        <v>0.089384464263635</v>
+        <v>0.08109933703737975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05056099999999999</v>
+        <v>0.04983966666666667</v>
       </c>
       <c r="H4">
-        <v>0.151683</v>
+        <v>0.149519</v>
       </c>
       <c r="I4">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="J4">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.27727</v>
       </c>
       <c r="O4">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P4">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q4">
-        <v>0.19006334949</v>
+        <v>0.18735179257</v>
       </c>
       <c r="R4">
-        <v>1.71057014541</v>
+        <v>1.68616613313</v>
       </c>
       <c r="S4">
-        <v>0.06756124334618051</v>
+        <v>0.06129893029996555</v>
       </c>
       <c r="T4">
-        <v>0.06756124334618051</v>
+        <v>0.06129893029996554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.3305169999999999</v>
       </c>
       <c r="I5">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="J5">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N5">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O5">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P5">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q5">
-        <v>0.1690636687727778</v>
+        <v>0.2700782941388888</v>
       </c>
       <c r="R5">
-        <v>1.521573018955</v>
+        <v>2.43070464725</v>
       </c>
       <c r="S5">
-        <v>0.06009655042702836</v>
+        <v>0.08836590406130077</v>
       </c>
       <c r="T5">
-        <v>0.06009655042702836</v>
+        <v>0.08836590406130075</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.3305169999999999</v>
       </c>
       <c r="I6">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="J6">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>14.919985</v>
       </c>
       <c r="O6">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P6">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q6">
         <v>0.5479231869161111</v>
@@ -818,10 +818,10 @@
         <v>4.931308682245</v>
       </c>
       <c r="S6">
-        <v>0.1947685961843044</v>
+        <v>0.1792729324004551</v>
       </c>
       <c r="T6">
-        <v>0.1947685961843044</v>
+        <v>0.179272932400455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.3305169999999999</v>
       </c>
       <c r="I7">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="J7">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.27727</v>
       </c>
       <c r="O7">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P7">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q7">
         <v>0.4141477165099999</v>
@@ -880,10 +880,10 @@
         <v>3.727329448589999</v>
       </c>
       <c r="S7">
-        <v>0.1472158347807569</v>
+        <v>0.1355034379975368</v>
       </c>
       <c r="T7">
-        <v>0.1472158347807569</v>
+        <v>0.1355034379975368</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.339816</v>
       </c>
       <c r="I8">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069452</v>
       </c>
       <c r="J8">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069451</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N8">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O8">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P8">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q8">
-        <v>0.1738202260933334</v>
+        <v>0.2776768686666667</v>
       </c>
       <c r="R8">
-        <v>1.56438203484</v>
+        <v>2.499091818</v>
       </c>
       <c r="S8">
-        <v>0.06178734945528088</v>
+        <v>0.0908520531606392</v>
       </c>
       <c r="T8">
-        <v>0.06178734945528088</v>
+        <v>0.09085205316063918</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.339816</v>
       </c>
       <c r="I9">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069452</v>
       </c>
       <c r="J9">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069451</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>14.919985</v>
       </c>
       <c r="O9">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P9">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q9">
         <v>0.5633388469733334</v>
@@ -1004,10 +1004,10 @@
         <v>5.07004962276</v>
       </c>
       <c r="S9">
-        <v>0.2002483541874264</v>
+        <v>0.1843167243941856</v>
       </c>
       <c r="T9">
-        <v>0.2002483541874263</v>
+        <v>0.1843167243941856</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.339816</v>
       </c>
       <c r="I10">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069452</v>
       </c>
       <c r="J10">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069451</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.27727</v>
       </c>
       <c r="O10">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P10">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q10">
         <v>0.42579964248</v>
@@ -1066,10 +1066,10 @@
         <v>3.83219678232</v>
       </c>
       <c r="S10">
-        <v>0.1513577096241878</v>
+        <v>0.1393157879521204</v>
       </c>
       <c r="T10">
-        <v>0.1513577096241878</v>
+        <v>0.1393157879521204</v>
       </c>
     </row>
   </sheetData>
